--- a/loci_point/Excel/h_new.xlsx
+++ b/loci_point/Excel/h_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NegarShams\PycharmProjects\loci_tool\loci_point\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880D9BAF-E8E9-414B-908F-776F9DEF761C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BA161D-749D-4EB3-8180-24873A87B767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25005" yWindow="3375" windowWidth="21600" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,7 +371,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.516</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -379,7 +379,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
